--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77637628-4BA0-4979-B18B-45423AE2A4BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360AC705-5CD9-4275-A47D-FB11D5395869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>index</t>
   </si>
@@ -102,7 +102,31 @@
     <t>l</t>
   </si>
   <si>
-    <t>Value in column A not between 2020-01-01 and 2022-01-01</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Dates D, E, F are not in the correct order - Values G, H, I are not in the correct order</t>
+  </si>
+  <si>
+    <t>Value in column A not between 2020-01-01 and 2022-01-01 - Dates D, E, F are not in the correct order - Values G, H, I are not in the correct order</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -138,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,19 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F9433-4DCB-4F98-8509-33F4BD68965F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,10 +509,28 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -498,8 +543,14 @@
       <c r="D2" s="1">
         <v>44197</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -512,11 +563,17 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -529,11 +586,21 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -543,8 +610,17 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -554,11 +630,21 @@
       <c r="D6" s="1">
         <v>44389</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>15</v>
       </c>
@@ -568,11 +654,29 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -582,11 +686,24 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -596,19 +713,49 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>43831</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -618,8 +765,46 @@
       <c r="D11" s="1">
         <v>32874</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43831</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43831</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360AC705-5CD9-4275-A47D-FB11D5395869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9DD600-4E21-46D0-9601-3A57484FACB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>index</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Dates D, E, F are not in the correct order - Values G, H, I are not in the correct order - Value in column L not admitted</t>
   </si>
 </sst>
 </file>
@@ -481,21 +487,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F9433-4DCB-4F98-8509-33F4BD68965F}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +533,13 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -549,8 +558,11 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -569,11 +581,14 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -596,11 +611,14 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -619,8 +637,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -640,11 +661,14 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>15</v>
       </c>
@@ -672,11 +696,14 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -699,11 +726,14 @@
         <v>1</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -726,11 +756,14 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -751,11 +784,12 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -779,11 +813,12 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -803,8 +838,11 @@
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" t="s">
-        <v>28</v>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9DD600-4E21-46D0-9601-3A57484FACB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618135F-CBF6-4CA9-B698-1F08E9D0AE79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>Value in column A not between 0 and 100</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Dates D, E, F are not in the correct order - Values G, H, I are not in the correct order - Value in column L not admitted</t>
+  </si>
+  <si>
+    <t>Value in column A not between 0 and 100 - Wrong format in column L</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,25 +515,25 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>32874</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>44197</v>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,12 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618135F-CBF6-4CA9-B698-1F08E9D0AE79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEEB360-BF0B-4218-9550-07A86F594F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="7" activeTab="14" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="index_null" sheetId="2" r:id="rId2"/>
+    <sheet name="duplicated_index" sheetId="3" r:id="rId3"/>
+    <sheet name="not_empthy_column" sheetId="4" r:id="rId4"/>
+    <sheet name="datetime_format" sheetId="5" r:id="rId5"/>
+    <sheet name="columns_between_values" sheetId="6" r:id="rId6"/>
+    <sheet name="columns_between_dates" sheetId="7" r:id="rId7"/>
+    <sheet name="dates_order" sheetId="8" r:id="rId8"/>
+    <sheet name="dates_strictly_order" sheetId="9" r:id="rId9"/>
+    <sheet name="values_order" sheetId="10" r:id="rId10"/>
+    <sheet name="values_strictly_order" sheetId="11" r:id="rId11"/>
+    <sheet name="values_in_list_cs" sheetId="12" r:id="rId12"/>
+    <sheet name="values_in_list" sheetId="13" r:id="rId13"/>
+    <sheet name="match_regex" sheetId="14" r:id="rId14"/>
+    <sheet name="custom_condition" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
   <si>
     <t>index</t>
   </si>
@@ -133,16 +147,132 @@
   </si>
   <si>
     <t>Value in column A not between 0 and 100 - Wrong format in column L</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>check_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Missing value in column A</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>Wrong Format in column A</t>
+  </si>
+  <si>
+    <t>1990/24/24</t>
+  </si>
+  <si>
+    <t>2022/02/29</t>
+  </si>
+  <si>
+    <t>2022-01-17 03:09:09,100</t>
+  </si>
+  <si>
+    <t>2022-01-17T03:09:09,100</t>
+  </si>
+  <si>
+    <t>Value in column A not between 0 and 100</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>Value in column A not between 2020-01-01 and 2022-01-01</t>
+  </si>
+  <si>
+    <t>Dates A, B, C, D are not in the correct order</t>
+  </si>
+  <si>
+    <t>Values A, B, C, D are not in the correct order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value in column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>A not admitted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value in column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A not admitted</t>
+    </r>
+  </si>
+  <si>
+    <t>CRRQRT02P08L736O</t>
+  </si>
+  <si>
+    <t>CRRQRT02P08L7A6O</t>
+  </si>
+  <si>
+    <t>Wrong format in column A</t>
+  </si>
+  <si>
+    <t>MRLWLM02M18F839K</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>MRLWLM99M18F83</t>
+  </si>
+  <si>
+    <t>MRLWLM32M99F839K</t>
+  </si>
+  <si>
+    <t>Custom condition failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,11 +298,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,11 +625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F9433-4DCB-4F98-8509-33F4BD68965F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
@@ -501,7 +637,7 @@
     <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -562,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -588,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -618,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -641,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -668,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>15</v>
       </c>
@@ -703,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>4</v>
       </c>
@@ -733,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -763,7 +899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -789,7 +925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>7</v>
       </c>
@@ -818,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>8</v>
       </c>
@@ -843,6 +979,1912 @@
       </c>
       <c r="L12" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B61E169-7898-4E1C-BC03-4425050356DD}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A517B-AA46-4DDF-AAFA-270DFF3A6E3F}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE963C38-6F34-4B89-B57F-550C284000B2}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F2C438-6F09-4ABF-922A-BEEDD10D4943}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F13D202-F1D4-4549-AA55-4A7D6DF2C619}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2334B-E0BB-494E-814F-42CF2FA1336A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514729AF-DF2F-4A0A-A6BE-34A1AF6C15E4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884EB9DF-6CF5-4241-9B50-94E09D8777D3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397D780-12B4-4652-A375-5954285CD137}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B723B021-1EA8-4155-866F-735D2F831DFD}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>33231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDAF381-5D1C-4B65-B8D8-BAFD4A47D0D7}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334B683-6DA1-4078-8DD1-066619A2068E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32874</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94927BB5-3D90-4D1F-B4C1-3540714F750C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F4A817-AAD6-449E-AF82-4EB65ACD907C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEEB360-BF0B-4218-9550-07A86F594F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19C4EC6-C847-4CED-9DDF-BD659848851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="7" activeTab="14" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="5" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="index_null" sheetId="2" r:id="rId2"/>
     <sheet name="duplicated_index" sheetId="3" r:id="rId3"/>
     <sheet name="not_empthy_column" sheetId="4" r:id="rId4"/>
-    <sheet name="datetime_format" sheetId="5" r:id="rId5"/>
-    <sheet name="columns_between_values" sheetId="6" r:id="rId6"/>
-    <sheet name="columns_between_dates" sheetId="7" r:id="rId7"/>
-    <sheet name="dates_order" sheetId="8" r:id="rId8"/>
-    <sheet name="dates_strictly_order" sheetId="9" r:id="rId9"/>
-    <sheet name="values_order" sheetId="10" r:id="rId10"/>
-    <sheet name="values_strictly_order" sheetId="11" r:id="rId11"/>
-    <sheet name="values_in_list_cs" sheetId="12" r:id="rId12"/>
-    <sheet name="values_in_list" sheetId="13" r:id="rId13"/>
-    <sheet name="match_regex" sheetId="14" r:id="rId14"/>
-    <sheet name="custom_condition" sheetId="15" r:id="rId15"/>
+    <sheet name="datetime_format1" sheetId="5" r:id="rId5"/>
+    <sheet name="datetime_format2" sheetId="16" r:id="rId6"/>
+    <sheet name="columns_between_values" sheetId="6" r:id="rId7"/>
+    <sheet name="columns_between_dates" sheetId="7" r:id="rId8"/>
+    <sheet name="dates_order" sheetId="8" r:id="rId9"/>
+    <sheet name="dates_strictly_order" sheetId="9" r:id="rId10"/>
+    <sheet name="values_order" sheetId="10" r:id="rId11"/>
+    <sheet name="values_strictly_order" sheetId="11" r:id="rId12"/>
+    <sheet name="values_in_list_cs" sheetId="12" r:id="rId13"/>
+    <sheet name="values_in_list" sheetId="13" r:id="rId14"/>
+    <sheet name="match_regex" sheetId="14" r:id="rId15"/>
+    <sheet name="custom_condition" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
   <si>
     <t>index</t>
   </si>
@@ -161,9 +162,6 @@
     <t>Missing value in column A</t>
   </si>
   <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
     <t>Wrong Format in column A</t>
   </si>
   <si>
@@ -171,12 +169,6 @@
   </si>
   <si>
     <t>2022/02/29</t>
-  </si>
-  <si>
-    <t>2022-01-17 03:09:09,100</t>
-  </si>
-  <si>
-    <t>2022-01-17T03:09:09,100</t>
   </si>
   <si>
     <t>Value in column A not between 0 and 100</t>
@@ -246,6 +238,51 @@
   </si>
   <si>
     <t>Custom condition failed</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-02-2022</t>
+  </si>
+  <si>
+    <t>24-12-2022</t>
+  </si>
+  <si>
+    <t>12-24-2022</t>
+  </si>
+  <si>
+    <t>24-24-1990</t>
+  </si>
+  <si>
+    <t>2022/01/01</t>
+  </si>
+  <si>
+    <t>2021/01/01</t>
+  </si>
+  <si>
+    <t>2022/01/02</t>
+  </si>
+  <si>
+    <t>2022/12/24</t>
+  </si>
+  <si>
+    <t>2022/24/12</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>1990-24-24</t>
+  </si>
+  <si>
+    <t>2022-02-29</t>
+  </si>
+  <si>
+    <t>29-02-2022</t>
   </si>
 </sst>
 </file>
@@ -298,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -309,6 +346,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,6 +1030,194 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F4A817-AAD6-449E-AF82-4EB65ACD907C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44228</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B61E169-7898-4E1C-BC03-4425050356DD}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1100,7 +1327,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1116,7 +1343,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1132,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1148,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1164,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A517B-AA46-4DDF-AAFA-270DFF3A6E3F}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1242,7 +1469,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1262,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1292,7 +1519,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1308,7 +1535,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1324,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1340,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1356,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE963C38-6F34-4B89-B57F-550C284000B2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1445,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1464,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1481,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F2C438-6F09-4ABF-922A-BEEDD10D4943}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1558,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1592,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F13D202-F1D4-4549-AA55-4A7D6DF2C619}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1622,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1635,10 +1862,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1652,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1660,10 +1887,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1676,10 +1903,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1687,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1702,12 +1929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2334B-E0BB-494E-814F-42CF2FA1336A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1751,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1820,12 +2047,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1936,7 +2163,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2174,7 +2401,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2198,35 +2425,35 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
+      <c r="B2" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1">
-        <v>44197</v>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2237,50 +2464,56 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="1">
-        <v>43257</v>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
-        <v>33231</v>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2293,6 +2526,140 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC4ED2E-A1F4-4E50-AC41-958D364EA3E5}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDAF381-5D1C-4B65-B8D8-BAFD4A47D0D7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2340,7 +2707,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2372,7 +2739,7 @@
         <v>-1</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2396,7 +2763,7 @@
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334B683-6DA1-4078-8DD1-066619A2068E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2464,7 +2831,7 @@
         <v>32874</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2472,18 +2839,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2505,7 +2872,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2513,7 +2880,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94927BB5-3D90-4D1F-B4C1-3540714F750C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2634,7 +3001,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2650,7 +3017,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2666,7 +3033,7 @@
         <v>44197</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2682,7 +3049,7 @@
         <v>44197</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2696,195 +3063,7 @@
         <v>44197</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F4A817-AAD6-449E-AF82-4EB65ACD907C}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44197</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>44197</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44197</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44197</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44197</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44197</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44228</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44256</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>44197</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>44197</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>44228</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44197</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44228</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44197</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19C4EC6-C847-4CED-9DDF-BD659848851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D245C9F-DBB6-4632-8AB3-78EC152AD850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="5" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="7" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
   <si>
     <t>index</t>
   </si>
@@ -172,12 +172,6 @@
   </si>
   <si>
     <t>Value in column A not between 0 and 100</t>
-  </si>
-  <si>
-    <t>1990-01-01</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
   </si>
   <si>
     <t>Value in column A not between 2020-01-01 and 2022-01-01</t>
@@ -283,6 +277,15 @@
   </si>
   <si>
     <t>29-02-2022</t>
+  </si>
+  <si>
+    <t>1990/01/01</t>
+  </si>
+  <si>
+    <t>2021/02/28</t>
+  </si>
+  <si>
+    <t>2024/01/01</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1113,7 +1116,7 @@
         <v>44197</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1143,7 +1146,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1159,7 +1162,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1175,7 +1178,7 @@
         <v>44197</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1191,7 +1194,7 @@
         <v>44197</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1205,7 +1208,7 @@
         <v>44197</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1330,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1343,7 +1346,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1359,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1375,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1391,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1489,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1519,7 +1522,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1535,7 +1538,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1551,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1567,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1583,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1691,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1785,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1849,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1862,10 +1865,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1879,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1887,10 +1890,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1903,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1914,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2401,7 +2404,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2426,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2445,7 +2448,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2453,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2469,7 +2472,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2477,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -2488,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2499,7 +2502,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2510,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -2529,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC4ED2E-A1F4-4E50-AC41-958D364EA3E5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2556,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2575,7 +2578,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2583,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2599,7 +2602,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2607,7 +2610,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -2619,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2631,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2643,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -2779,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334B683-6DA1-4078-8DD1-066619A2068E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2819,46 +2822,46 @@
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1">
-        <v>44197</v>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>32874</v>
+      <c r="B5" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="4" t="s">
-        <v>42</v>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
-        <v>44255</v>
+      <c r="B8" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3001,7 +3004,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3017,7 +3020,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3033,7 +3036,7 @@
         <v>44197</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3049,7 +3052,7 @@
         <v>44197</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3063,7 +3066,7 @@
         <v>44197</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D245C9F-DBB6-4632-8AB3-78EC152AD850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B4A80-552B-486C-857D-4782C3F64C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="7" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="17" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="values_in_list" sheetId="13" r:id="rId14"/>
     <sheet name="match_regex" sheetId="14" r:id="rId15"/>
     <sheet name="custom_condition" sheetId="15" r:id="rId16"/>
+    <sheet name="dimension_table" sheetId="17" r:id="rId17"/>
+    <sheet name="fact_table" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
   <si>
     <t>index</t>
   </si>
@@ -287,12 +289,84 @@
   <si>
     <t>2024/01/01</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Prodotto 1</t>
+  </si>
+  <si>
+    <t>Prodotto 2</t>
+  </si>
+  <si>
+    <t>Prodotto 3</t>
+  </si>
+  <si>
+    <t>Prodotto 4</t>
+  </si>
+  <si>
+    <t>Prodotto 5</t>
+  </si>
+  <si>
+    <t>Prodotto 6</t>
+  </si>
+  <si>
+    <t>Prodotto 7</t>
+  </si>
+  <si>
+    <t>Prodotto 8</t>
+  </si>
+  <si>
+    <t>Prodotto 9</t>
+  </si>
+  <si>
+    <t>dimension_id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Unable to find a match with table dimension_table</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Prodotto 10</t>
+  </si>
+  <si>
+    <t>dimension_code</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +387,12 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1937,7 +2017,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2035,6 +2115,283 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF902E8-D0D1-4366-BFA1-C06E6C3F9787}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647218C9-F641-4EBC-8F76-9B564D0F7D90}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,7 +3139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C334B683-6DA1-4078-8DD1-066619A2068E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B4A80-552B-486C-857D-4782C3F64C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31930A2-A4B0-4FCF-BFCC-6140720317CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="17" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="10" activeTab="17" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31930A2-A4B0-4FCF-BFCC-6140720317CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915F0701-DA2A-44CE-BC29-36A9F036F3A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="10" activeTab="17" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="17" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="96">
   <si>
     <t>index</t>
   </si>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2315,8 +2315,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
+      <c r="A4" s="4">
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>85</v>
@@ -2342,6 +2342,9 @@
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>87</v>
       </c>
@@ -2351,7 +2354,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>88</v>
@@ -2362,7 +2365,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>89</v>
@@ -2376,7 +2379,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>95</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915F0701-DA2A-44CE-BC29-36A9F036F3A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0871D-55D9-487A-B509-9037A62BE4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="17" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="8" activeTab="19" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="custom_condition" sheetId="15" r:id="rId16"/>
     <sheet name="dimension_table" sheetId="17" r:id="rId17"/>
     <sheet name="fact_table" sheetId="18" r:id="rId18"/>
+    <sheet name="user_list" sheetId="19" r:id="rId19"/>
+    <sheet name="products" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="103">
   <si>
     <t>index</t>
   </si>
@@ -360,6 +362,27 @@
   </si>
   <si>
     <t>010</t>
+  </si>
+  <si>
+    <t>registration_date</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>selling_date</t>
+  </si>
+  <si>
+    <t>Dates selling_date, registration_date are not in the correct order</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2153,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2270,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647218C9-F641-4EBC-8F76-9B564D0F7D90}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2394,6 +2417,110 @@
     <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE8B40A-2F02-46EA-9C9D-62E774A84988}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2510,6 +2637,147 @@
       </c>
       <c r="B11">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ACB48D-ECB1-4A5C-AED2-4F9C968DA995}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3528,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0871D-55D9-487A-B509-9037A62BE4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E089BF8-5BA1-4C3D-A9FA-039B0CDB2051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="8" activeTab="19" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="9" activeTab="20" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="fact_table" sheetId="18" r:id="rId18"/>
     <sheet name="user_list" sheetId="19" r:id="rId19"/>
     <sheet name="products" sheetId="20" r:id="rId20"/>
+    <sheet name="products2" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
   <si>
     <t>index</t>
   </si>
@@ -383,6 +384,15 @@
   </si>
   <si>
     <t>Dates selling_date, registration_date are not in the correct order</t>
+  </si>
+  <si>
+    <t>max_products</t>
+  </si>
+  <si>
+    <t>n_products</t>
+  </si>
+  <si>
+    <t>Values n_products, max_products are not in the correct order</t>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -454,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,7 +1943,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2430,66 +2443,85 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE8B40A-2F02-46EA-9C9D-62E774A84988}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2497,7 +2529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2505,22 +2537,31 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2652,14 +2693,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ACB48D-ECB1-4A5C-AED2-4F9C968DA995}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2778,6 +2819,145 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A182E-6C46-4A39-B04A-4A02F1058509}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_df.xlsx
+++ b/test/test_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A470222\Documents\Python Scripts\data_quality\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E089BF8-5BA1-4C3D-A9FA-039B0CDB2051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19129C7-1886-4072-9FD8-2FE6F02D73CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="9" activeTab="20" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="10" activeTab="21" xr2:uid="{95E7790A-81A8-4725-9CAF-8FDD23C80EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="user_list" sheetId="19" r:id="rId19"/>
     <sheet name="products" sheetId="20" r:id="rId20"/>
     <sheet name="products2" sheetId="21" r:id="rId21"/>
+    <sheet name="period_intersection" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
   <si>
     <t>index</t>
   </si>
@@ -393,6 +394,15 @@
   </si>
   <si>
     <t>Values n_products, max_products are not in the correct order</t>
+  </si>
+  <si>
+    <t>subscription_start</t>
+  </si>
+  <si>
+    <t>subscription_end</t>
+  </si>
+  <si>
+    <t>Rows intersection on period from subscription_start to subscription_end</t>
   </si>
 </sst>
 </file>
@@ -2834,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A182E-6C46-4A39-B04A-4A02F1058509}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2958,6 +2968,198 @@
       </c>
       <c r="C11" s="10">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000INTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2C003C-CD07-48D1-B8D2-67864FAD999F}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44217</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44227</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44256</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44248</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3910,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
